--- a/uploads/GestionPermisos/gestionpermisos.xlsx
+++ b/uploads/GestionPermisos/gestionpermisos.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://enami-my.sharepoint.com/personal/pjdiaz_enami_cl/Documents/Escritorio/Proyecto26/Proyecto16/Proyecto11/proyecto2/uploads/GestionPermisos/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://enami-my.sharepoint.com/personal/pjdiaz_enami_cl/Documents/Escritorio/Proyecto37/Proyecto16/Proyecto11/proyecto2/uploads/GestionPermisos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="52" documentId="11_AD4D2F04E46CFB4ACB3E20C07D90DEBA683EDF21" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ADDB9BB6-749E-4539-A28A-5CA3441B845C}"/>
+  <xr:revisionPtr revIDLastSave="55" documentId="11_AD4D2F04E46CFB4ACB3E20C07D90DEBA683EDF21" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{42FE425D-BA05-421F-912B-8140FB6B3EE4}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -116,8 +116,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -417,7 +418,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="G4" sqref="G4:G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -471,7 +472,7 @@
         <v>8</v>
       </c>
       <c r="G2">
-        <v>12</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
@@ -494,7 +495,7 @@
         <v>8</v>
       </c>
       <c r="G3">
-        <v>12</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
@@ -513,8 +514,8 @@
       <c r="E4">
         <v>1</v>
       </c>
-      <c r="G4">
-        <v>15</v>
+      <c r="G4" s="1">
+        <v>52.960999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
@@ -533,8 +534,8 @@
       <c r="E5">
         <v>1</v>
       </c>
-      <c r="G5">
-        <v>15</v>
+      <c r="G5" s="1">
+        <v>52.960999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
@@ -553,8 +554,8 @@
       <c r="E6">
         <v>1</v>
       </c>
-      <c r="G6">
-        <v>15</v>
+      <c r="G6" s="1">
+        <v>52.960999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
@@ -573,8 +574,8 @@
       <c r="E7">
         <v>1</v>
       </c>
-      <c r="G7">
-        <v>15</v>
+      <c r="G7" s="1">
+        <v>52.960999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
@@ -593,8 +594,8 @@
       <c r="E8">
         <v>1</v>
       </c>
-      <c r="G8">
-        <v>15</v>
+      <c r="G8" s="1">
+        <v>52.960999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
@@ -613,8 +614,8 @@
       <c r="E9">
         <v>1</v>
       </c>
-      <c r="G9">
-        <v>15</v>
+      <c r="G9" s="1">
+        <v>52.960999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/uploads/GestionPermisos/gestionpermisos.xlsx
+++ b/uploads/GestionPermisos/gestionpermisos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://enami-my.sharepoint.com/personal/pjdiaz_enami_cl/Documents/Escritorio/Proyecto37/Proyecto16/Proyecto11/proyecto2/uploads/GestionPermisos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="55" documentId="11_AD4D2F04E46CFB4ACB3E20C07D90DEBA683EDF21" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{42FE425D-BA05-421F-912B-8140FB6B3EE4}"/>
+  <xr:revisionPtr revIDLastSave="69" documentId="11_AD4D2F04E46CFB4ACB3E20C07D90DEBA683EDF21" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2DE43B2B-E948-430D-9615-4AEDCD21D0B7}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>id_categoria</t>
   </si>
@@ -81,6 +81,9 @@
   </si>
   <si>
     <t xml:space="preserve">ACTIVADOR OFICINA </t>
+  </si>
+  <si>
+    <t>total_clp</t>
   </si>
 </sst>
 </file>
@@ -137,9 +140,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F32EA3D3-CD14-4B75-B316-39C6503C936C}" name="Tabla1" displayName="Tabla1" ref="A1:G9" totalsRowShown="0">
-  <autoFilter ref="A1:G9" xr:uid="{F32EA3D3-CD14-4B75-B316-39C6503C936C}"/>
-  <tableColumns count="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F32EA3D3-CD14-4B75-B316-39C6503C936C}" name="Tabla1" displayName="Tabla1" ref="A1:H9" totalsRowShown="0">
+  <autoFilter ref="A1:H9" xr:uid="{F32EA3D3-CD14-4B75-B316-39C6503C936C}"/>
+  <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{A808561E-4846-49C5-BBCE-B6A3715064D6}" name="id_categoria"/>
     <tableColumn id="2" xr3:uid="{FE385F0A-B135-4060-82FA-55996DA6DA93}" name="nombre"/>
     <tableColumn id="3" xr3:uid="{94E9DD3F-A3D5-4546-AC5C-2F01322015EB}" name="dedicacion"/>
@@ -147,6 +150,7 @@
     <tableColumn id="5" xr3:uid="{2A6D5B75-1E45-44B7-A490-0CD97056D246}" name="cantidad"/>
     <tableColumn id="6" xr3:uid="{E45469E7-6195-4EFD-BC2E-D209578CFE33}" name="turno"/>
     <tableColumn id="7" xr3:uid="{6116C596-0EBA-4E80-A155-6499E5A18B6A}" name="MB"/>
+    <tableColumn id="8" xr3:uid="{042C9D06-2AEC-489D-B3EF-C2634C50D17D}" name="total_clp"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -415,10 +419,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4:G9"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -427,9 +431,10 @@
     <col min="2" max="2" width="19" customWidth="1"/>
     <col min="3" max="3" width="11.7265625" customWidth="1"/>
     <col min="5" max="5" width="10.08984375" customWidth="1"/>
+    <col min="8" max="8" width="11.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -451,8 +456,11 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>11025</v>
       </c>
@@ -472,10 +480,13 @@
         <v>8</v>
       </c>
       <c r="G2">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+      <c r="H2">
+        <v>15962400</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>11025</v>
       </c>
@@ -495,10 +506,13 @@
         <v>8</v>
       </c>
       <c r="G3">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+      <c r="H3">
+        <v>14366160</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>11026</v>
       </c>
@@ -515,10 +529,13 @@
         <v>1</v>
       </c>
       <c r="G4" s="1">
-        <v>52.960999999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+      <c r="H4">
+        <v>11447849</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>11026</v>
       </c>
@@ -535,10 +552,13 @@
         <v>1</v>
       </c>
       <c r="G5" s="1">
-        <v>52.960999999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+      <c r="H5">
+        <v>5724294</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>11026</v>
       </c>
@@ -555,10 +575,13 @@
         <v>1</v>
       </c>
       <c r="G6" s="1">
-        <v>52.960999999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>11026</v>
       </c>
@@ -575,10 +598,13 @@
         <v>1</v>
       </c>
       <c r="G7" s="1">
-        <v>52.960999999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+      <c r="H7">
+        <v>10567700</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>11026</v>
       </c>
@@ -595,10 +621,13 @@
         <v>1</v>
       </c>
       <c r="G8" s="1">
-        <v>52.960999999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+      <c r="H8">
+        <v>5283850</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>11026</v>
       </c>
@@ -615,7 +644,10 @@
         <v>1</v>
       </c>
       <c r="G9" s="1">
-        <v>52.960999999999999</v>
+        <v>6</v>
+      </c>
+      <c r="H9">
+        <v>5283850</v>
       </c>
     </row>
   </sheetData>
